--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId2"/>
-    <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId3"/>
-    <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId4"/>
-    <sheet name="CSM_Systemparameters" sheetId="4" r:id="rId5"/>
-    <sheet name="CSM_Accountparameters" sheetId="5" r:id="rId6"/>
-    <sheet name="CSMParam_CIFTypeTestData" sheetId="6" r:id="rId7"/>
+    <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
+    <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId4"/>
+    <sheet name="CSM_Accountparameters" sheetId="5" r:id="rId5"/>
+    <sheet name="CSM_Transaction" sheetId="6" r:id="rId6"/>
+    <sheet name="CSMParam_CIFTypeTestData" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -160,13 +160,13 @@
     <t>DS01_ActType_Acces_04</t>
   </si>
   <si>
+    <t>DataSet_ID</t>
+  </si>
+  <si>
     <t>User_Id</t>
   </si>
   <si>
-    <t>Send to receive from chequebooks dropdown</t>
-  </si>
-  <si>
-    <t>Input_field</t>
+    <t>DropDown</t>
   </si>
   <si>
     <t>CHB_186</t>
@@ -175,22 +175,19 @@
     <t>CHB_186_D1</t>
   </si>
   <si>
-    <t>MODEL.B</t>
+    <t>KARTHIK</t>
   </si>
   <si>
     <t>Logged-in branch</t>
   </si>
   <si>
-    <t>CHB_180_D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHB_187 </t>
-  </si>
-  <si>
-    <t>CHB_187_D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All branches </t>
+    <t>CHB_187</t>
+  </si>
+  <si>
+    <t>CHB_187_D1</t>
+  </si>
+  <si>
+    <t>All branches</t>
   </si>
   <si>
     <t>Allow_Overdraw</t>
@@ -205,6 +202,48 @@
     <t xml:space="preserve">Notify and Don't Proceed </t>
   </si>
   <si>
+    <t>TSA_023</t>
+  </si>
+  <si>
+    <t>TSA_023_D1</t>
+  </si>
+  <si>
+    <t>TSA_024</t>
+  </si>
+  <si>
+    <t>TSA_024_D1</t>
+  </si>
+  <si>
+    <t>TRXType</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
+    <t>GLCode</t>
+  </si>
+  <si>
+    <t>CIFCode</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>TSA_023_D2</t>
+  </si>
+  <si>
+    <t>TSA_024_D2</t>
+  </si>
+  <si>
+    <t>TRS_025</t>
+  </si>
+  <si>
+    <t>TRS_025_D1</t>
+  </si>
+  <si>
     <t>CIF Type Code</t>
   </si>
   <si>
@@ -233,72 +272,78 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>TRS_063</t>
+  </si>
+  <si>
+    <t>TRS_063_D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="[$$]#,##0.00;[RED]\-[$$]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="63"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,60 +352,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="24"/>
+        <fgColor rgb="FFA6A6A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor rgb="FFFF3333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
+        <fgColor rgb="FF99FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -370,336 +409,152 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top>
-        <color indexed="0"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
-      <right>
-        <color indexed="0"/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="24">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="24" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="24" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="1" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="5">
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 1" xfId="20"/>
-    <cellStyle name="Heading1 1" xfId="21"/>
-    <cellStyle name="Result 1" xfId="22"/>
-    <cellStyle name="Result2 1" xfId="23"/>
-    <cellStyle name="Excel Built-in Normal" xfId="24"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00B2B2B2"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="00A6A6A6"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000B0F0"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="0099FF66"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0092D050"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF3333"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00999999"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00202124"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -746,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -798,7 +653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -992,437 +847,405 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{c270443f-ff65-496d-9746-b87d569ea5c9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.8571428571429" style="1"/>
-    <col min="2" max="2" width="26.2857142857143" style="1"/>
-    <col min="3" max="3" width="12.5714285714286" style="1"/>
-    <col min="4" max="4" width="16.5714285714286" style="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="1"/>
-    <col min="6" max="6" width="26.7142857142857" style="1"/>
-    <col min="7" max="7" width="18.5714285714286" style="1"/>
-    <col min="8" max="16384" width="8.71428571428571" style="1"/>
+    <col min="1" max="1" width="28.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23" style="22" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>9642</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>9643</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>9644</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>9645</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="1.0453000000000001" bottom="1.0453000000000001" header="0.84840000000000004" footer="0.84840000000000004"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{4743ec26-c785-49d2-bb80-ddc752de875a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4285714285714" style="1"/>
-    <col min="2" max="2" width="28.5714285714286" style="1"/>
-    <col min="3" max="3" width="29.1428571428571" style="1"/>
-    <col min="4" max="4" width="31" style="1"/>
-    <col min="5" max="5" width="29.2857142857143" style="1"/>
-    <col min="6" max="6" width="25.2857142857143" style="1"/>
-    <col min="7" max="7" width="21.4285714285714" style="1"/>
-    <col min="8" max="16384" width="8.71428571428571" style="1"/>
+    <col min="1" max="1" width="30" style="22" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="1.0453000000000001" bottom="1.0453000000000001" header="0.84840000000000004" footer="0.84840000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7654dd3c-2fa2-433c-842c-92cbd854e1e0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.2857142857143" style="1"/>
-    <col min="2" max="2" width="28.4285714285714" style="1"/>
-    <col min="3" max="3" width="17.2857142857143" style="1"/>
-    <col min="4" max="4" width="26.7142857142857" style="1"/>
-    <col min="5" max="5" width="30.4285714285714" style="1"/>
-    <col min="6" max="6" width="30.8571428571429" style="1"/>
-    <col min="7" max="7" width="39.8571428571429" style="1"/>
-    <col min="8" max="16384" width="8.71428571428571" style="1"/>
+    <col min="1" max="1" width="28.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="30" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>9636</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>9636</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="1.0453000000000001" bottom="1.0453000000000001" header="0.84840000000000004" footer="0.84840000000000004"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{c1fe006d-f76d-4c1e-81f3-47eb24921a56}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.1428571428571"/>
-    <col min="2" max="2" width="15.7142857142857"/>
-    <col min="3" max="3" width="11.5714285714286"/>
-    <col min="4" max="4" width="37"/>
-    <col min="5" max="5" width="14.5714285714286"/>
-    <col min="6" max="6" width="14.4285714285714"/>
-    <col min="7" max="16384" width="11.5714285714286"/>
+    <col min="1" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="24">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
-  <headerFooter alignWithMargins="0">
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1430,158 +1253,509 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{73d92df3-c636-4512-98c5-01b307b4b8cc}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="13.2857142857143"/>
-    <col min="3" max="3" width="11.5714285714286"/>
-    <col min="4" max="4" width="15"/>
-    <col min="5" max="16384" width="11.5714285714286"/>
+    <col min="1" max="2" width="14" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="23"/>
+    <col min="4" max="4" width="15.85546875" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="12.28515625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5">
+      <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75">
-      <c r="A2" s="28" t="s">
+      <c r="B2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="17">
+        <v>400402</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="29">
-        <v>400402</v>
-      </c>
-      <c r="D2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>60</v>
       </c>
+      <c r="B3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="17">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="17">
+        <v>784</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0528" bottom="1.0528" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e91b5121-7b29-4d10-ab32-fd8dbb752d17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="29">
+        <v>377</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <v>840</v>
+      </c>
+      <c r="F2" s="29">
+        <v>400402</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="29">
+        <v>784</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>840</v>
+      </c>
+      <c r="F3" s="29">
+        <v>400402</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="29">
+        <v>201</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>586</v>
+      </c>
+      <c r="F5" s="29">
+        <v>8456</v>
+      </c>
+      <c r="G5" s="29">
+        <v>993602</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.4285714285714" style="1"/>
-    <col min="2" max="2" width="28.8571428571429" style="1"/>
-    <col min="3" max="3" width="25.8571428571429" style="1"/>
-    <col min="4" max="4" width="33.7142857142857" style="1"/>
-    <col min="5" max="5" width="29" style="1"/>
-    <col min="6" max="6" width="18.5714285714286" style="1"/>
-    <col min="7" max="7" width="25.7142857142857" style="1"/>
-    <col min="8" max="8" width="23.7142857142857" style="1"/>
-    <col min="9" max="9" width="30.1428571428571" style="1"/>
-    <col min="10" max="10" width="23" style="1"/>
-    <col min="11" max="11" width="19.7142857142857" style="1"/>
-    <col min="12" max="16384" width="8.71428571428571" style="1"/>
+    <col min="1" max="1" width="26.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="21">
+        <v>9611</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="32">
-        <v>9611</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="32">
+      <c r="J2" s="21">
         <v>1</v>
       </c>
-      <c r="H2" s="32">
-        <v>1</v>
-      </c>
-      <c r="I2" s="32">
-        <v>62</v>
-      </c>
-      <c r="J2" s="32">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>9601</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="1.0453000000000001" bottom="1.0453000000000001" header="0.84840000000000004" footer="0.84840000000000004"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -214,24 +214,6 @@
     <t>TSA_024_D1</t>
   </si>
   <si>
-    <t>TRXType</t>
-  </si>
-  <si>
-    <t>BranchCode</t>
-  </si>
-  <si>
-    <t>CurrencyCode</t>
-  </si>
-  <si>
-    <t>GLCode</t>
-  </si>
-  <si>
-    <t>CIFCode</t>
-  </si>
-  <si>
-    <t>SerialNo</t>
-  </si>
-  <si>
     <t>TSA_023_D2</t>
   </si>
   <si>
@@ -281,6 +263,48 @@
   </si>
   <si>
     <t>TRS_063_D1</t>
+  </si>
+  <si>
+    <t>TRXType_D1</t>
+  </si>
+  <si>
+    <t>BranchCode_D1</t>
+  </si>
+  <si>
+    <t>CurrencyCode_D1</t>
+  </si>
+  <si>
+    <t>GLCode_D1</t>
+  </si>
+  <si>
+    <t>CIFCode_D1</t>
+  </si>
+  <si>
+    <t>SerialNo_D1</t>
+  </si>
+  <si>
+    <t>TRXType_D2</t>
+  </si>
+  <si>
+    <t>BranchCode_D2</t>
+  </si>
+  <si>
+    <t>CurrencyCode_D2</t>
+  </si>
+  <si>
+    <t>SerialNo_D2</t>
+  </si>
+  <si>
+    <t>GLCode_D2</t>
+  </si>
+  <si>
+    <t>CIFCode_D2</t>
+  </si>
+  <si>
+    <t>TRS_064</t>
+  </si>
+  <si>
+    <t>TRS_064_D1</t>
   </si>
 </sst>
 </file>
@@ -399,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -463,13 +487,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -486,7 +523,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,7 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,6 +573,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="3"/>
@@ -1207,7 +1263,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1330,325 +1386,701 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:19" ht="15.75">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C2" s="28">
+        <v>377</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="28">
+        <v>840</v>
+      </c>
+      <c r="F2" s="28">
+        <v>400402</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C3" s="28">
+        <v>784</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>840</v>
+      </c>
+      <c r="F3" s="28">
+        <v>400402</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="B4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="29">
-        <v>377</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="28">
+        <v>201</v>
+      </c>
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E5" s="28">
+        <v>586</v>
+      </c>
+      <c r="F5" s="28">
+        <v>8456</v>
+      </c>
+      <c r="G5" s="28">
+        <v>993602</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28">
         <v>840</v>
       </c>
-      <c r="F2" s="29">
-        <v>400402</v>
-      </c>
-      <c r="G2" s="29">
+      <c r="L5" s="28">
+        <v>5916</v>
+      </c>
+      <c r="M5" s="28">
+        <v>993567</v>
+      </c>
+      <c r="N5" s="28">
         <v>0</v>
       </c>
-      <c r="H2" s="29">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="33">
+        <v>55</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>586</v>
+      </c>
+      <c r="F6" s="28">
+        <v>8456</v>
+      </c>
+      <c r="G6" s="28">
+        <v>993602</v>
+      </c>
+      <c r="H6" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="29">
-        <v>784</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="I6" s="30"/>
+      <c r="J6" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="29">
+      <c r="K6" s="28">
         <v>840</v>
       </c>
-      <c r="F3" s="29">
-        <v>400402</v>
-      </c>
-      <c r="G3" s="29">
+      <c r="L6" s="28">
+        <v>5916</v>
+      </c>
+      <c r="M6" s="28">
+        <v>993567</v>
+      </c>
+      <c r="N6" s="28">
         <v>0</v>
       </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="29">
-        <v>201</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>586</v>
-      </c>
-      <c r="F5" s="29">
-        <v>8456</v>
-      </c>
-      <c r="G5" s="29">
-        <v>993602</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
@@ -1692,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1701,30 +2133,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" s="21">
         <v>9611</v>
@@ -1736,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G2" s="21">
         <v>1</v>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
     <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId4"/>
     <sheet name="CSM_Accountparameters" sheetId="5" r:id="rId5"/>
-    <sheet name="CSM_Transaction" sheetId="6" r:id="rId6"/>
-    <sheet name="CSMParam_CIFTypeTestData" sheetId="7" r:id="rId7"/>
+    <sheet name="CSM_TransactionOnStaffAcc" sheetId="8" r:id="rId6"/>
+    <sheet name="CSM_Transaction" sheetId="6" r:id="rId7"/>
+    <sheet name="CSMParam_CIFTypeTestData" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -214,12 +215,6 @@
     <t>TSA_024_D1</t>
   </si>
   <si>
-    <t>TSA_023_D2</t>
-  </si>
-  <si>
-    <t>TSA_024_D2</t>
-  </si>
-  <si>
     <t>TRS_025</t>
   </si>
   <si>
@@ -305,6 +300,63 @@
   </si>
   <si>
     <t>TRS_064_D1</t>
+  </si>
+  <si>
+    <t>CHB_180</t>
+  </si>
+  <si>
+    <t>CHB_180_D1</t>
+  </si>
+  <si>
+    <t>TRXType</t>
+  </si>
+  <si>
+    <t>Cheque_code</t>
+  </si>
+  <si>
+    <t>Notify and Don't Proceed</t>
+  </si>
+  <si>
+    <t>CHB_181</t>
+  </si>
+  <si>
+    <t>CHB_181_D1</t>
+  </si>
+  <si>
+    <t>Notify and Proceed</t>
+  </si>
+  <si>
+    <t>CHB_182</t>
+  </si>
+  <si>
+    <t>CHB_182_D1</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>TRXNo</t>
+  </si>
+  <si>
+    <t>TSA_157</t>
+  </si>
+  <si>
+    <t>TSA_157_D1</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TRS_027</t>
+  </si>
+  <si>
+    <t>TRS_027_D1</t>
+  </si>
+  <si>
+    <t>TRS_026</t>
+  </si>
+  <si>
+    <t>TRS_026_D1</t>
   </si>
 </sst>
 </file>
@@ -314,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -366,8 +418,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,8 +486,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -511,6 +581,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,7 +606,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,11 +616,7 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -560,9 +639,6 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,6 +669,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="3"/>
@@ -903,7 +996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,14 +1010,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="23" style="22" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="22"/>
+    <col min="1" max="1" width="28.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="23" style="20" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1056,14 +1149,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" style="22" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="22"/>
+    <col min="1" max="1" width="30" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1154,14 +1247,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="30" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="22"/>
+    <col min="1" max="1" width="28.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1237,70 +1330,833 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
+        <v>840</v>
+      </c>
+      <c r="H4" s="25">
+        <v>400402</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>741</v>
+      </c>
+      <c r="L4" s="25">
+        <v>741</v>
+      </c>
+      <c r="M4" s="44">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>840</v>
+      </c>
+      <c r="H5" s="25">
+        <v>400402</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>741</v>
+      </c>
+      <c r="L5" s="25">
+        <v>741</v>
+      </c>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>840</v>
+      </c>
+      <c r="H6" s="25">
+        <v>400402</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>741</v>
+      </c>
+      <c r="L6" s="25">
+        <v>741</v>
+      </c>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1318,59 +2174,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="14" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="23"/>
-    <col min="4" max="4" width="15.85546875" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="12.28515625" style="23"/>
+    <col min="1" max="2" width="14" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="21"/>
+    <col min="4" max="4" width="15.85546875" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="12.28515625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <v>400402</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>784</v>
       </c>
     </row>
@@ -1386,10 +2242,619 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="14" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="25">
+        <v>377</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>840</v>
+      </c>
+      <c r="F2" s="25">
+        <v>4567</v>
+      </c>
+      <c r="G2" s="25">
+        <v>993590</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="25">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="25">
+        <v>1</v>
+      </c>
+      <c r="M2" s="25">
+        <v>840</v>
+      </c>
+      <c r="N2" s="25">
+        <v>5916</v>
+      </c>
+      <c r="O2" s="25">
+        <v>993567</v>
+      </c>
+      <c r="P2" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="26"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="26"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="26"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="26"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="26"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="26"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="26"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="26"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="26"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="26"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="26"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="26"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="26"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="26"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="26"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="26"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="26"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="26"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="26"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="26"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="26"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="26"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="26"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="26"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -1407,680 +2872,759 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="L1" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="40" t="s">
+      <c r="O1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="25">
+        <v>377</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>840</v>
+      </c>
+      <c r="F2" s="25">
+        <v>400402</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>377</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="25">
+        <v>784</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>840</v>
+      </c>
+      <c r="F3" s="25">
+        <v>400402</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>377</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="25">
+        <v>377</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>840</v>
+      </c>
+      <c r="F4" s="25">
+        <v>95916</v>
+      </c>
+      <c r="G4" s="25">
+        <v>993558</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>377</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="25">
+        <v>201</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>586</v>
+      </c>
+      <c r="F5" s="25">
+        <v>8456</v>
+      </c>
+      <c r="G5" s="25">
+        <v>993602</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>377</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>840</v>
+      </c>
+      <c r="L5" s="25">
+        <v>5916</v>
+      </c>
+      <c r="M5" s="25">
+        <v>993567</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="B6" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="C6" s="30">
+        <v>55</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>586</v>
+      </c>
+      <c r="F6" s="25">
+        <v>8456</v>
+      </c>
+      <c r="G6" s="25">
+        <v>993602</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
         <v>377</v>
       </c>
-      <c r="D2" s="28">
+      <c r="J6" s="25">
         <v>1</v>
       </c>
-      <c r="E2" s="28">
+      <c r="K6" s="25">
         <v>840</v>
       </c>
-      <c r="F2" s="28">
-        <v>400402</v>
-      </c>
-      <c r="G2" s="28">
+      <c r="L6" s="25">
+        <v>5916</v>
+      </c>
+      <c r="M6" s="25">
+        <v>993567</v>
+      </c>
+      <c r="N6" s="25">
         <v>0</v>
       </c>
-      <c r="H2" s="37">
+      <c r="O6" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="25">
+        <v>377</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>586</v>
+      </c>
+      <c r="F7" s="25">
+        <v>8456</v>
+      </c>
+      <c r="G7" s="25">
+        <v>993602</v>
+      </c>
+      <c r="H7" s="25">
         <v>0</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="28">
-        <v>784</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="I7" s="25">
+        <v>377</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="25">
+        <v>977</v>
+      </c>
+      <c r="D8" s="25">
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E8" s="25">
         <v>840</v>
       </c>
-      <c r="F3" s="28">
-        <v>400402</v>
-      </c>
-      <c r="G3" s="28">
+      <c r="F8" s="25">
+        <v>96138</v>
+      </c>
+      <c r="G8" s="25">
+        <v>993563</v>
+      </c>
+      <c r="H8" s="34">
         <v>0</v>
       </c>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="28">
-        <v>201</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28">
-        <v>586</v>
-      </c>
-      <c r="F5" s="28">
-        <v>8456</v>
-      </c>
-      <c r="G5" s="28">
-        <v>993602</v>
-      </c>
-      <c r="H5" s="28">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="28">
-        <v>1</v>
-      </c>
-      <c r="K5" s="28">
-        <v>840</v>
-      </c>
-      <c r="L5" s="28">
-        <v>5916</v>
-      </c>
-      <c r="M5" s="28">
-        <v>993567</v>
-      </c>
-      <c r="N5" s="28">
-        <v>0</v>
-      </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="33">
-        <v>55</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-      <c r="E6" s="28">
-        <v>586</v>
-      </c>
-      <c r="F6" s="28">
-        <v>8456</v>
-      </c>
-      <c r="G6" s="28">
-        <v>993602</v>
-      </c>
-      <c r="H6" s="28">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="28">
-        <v>1</v>
-      </c>
-      <c r="K6" s="28">
-        <v>840</v>
-      </c>
-      <c r="L6" s="28">
-        <v>5916</v>
-      </c>
-      <c r="M6" s="28">
-        <v>993567</v>
-      </c>
-      <c r="N6" s="28">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
+      <c r="I8" s="25">
+        <v>977</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
@@ -2092,7 +3636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2102,29 +3646,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="25" style="22" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="22"/>
+    <col min="1" max="1" width="26.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2133,53 +3677,53 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
+      <c r="C2" s="19">
+        <v>9611</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="21">
-        <v>9611</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <v>1</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>62</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="19">
         <v>1</v>
       </c>
       <c r="K2" s="6">

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -333,13 +333,22 @@
     <t>TRS_140_D1</t>
   </si>
   <si>
-    <t>8086</t>
-  </si>
-  <si>
-    <t>8091</t>
-  </si>
-  <si>
-    <t>8092</t>
+    <t>586</t>
+  </si>
+  <si>
+    <t>8456</t>
+  </si>
+  <si>
+    <t>993602</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>TRS_067</t>
+  </si>
+  <si>
+    <t>TRS_067_D1</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -611,6 +620,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="3"/>
@@ -921,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -937,14 +949,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1800,32 +1812,32 @@
   <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75">
@@ -1941,8 +1953,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="28"/>
-      <c r="J2" s="26">
-        <v>1000</v>
+      <c r="J2" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="26">
@@ -4423,26 +4435,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR95"/>
+  <dimension ref="A1:AR96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75">
@@ -4822,14 +4833,14 @@
       <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
-        <v>840</v>
-      </c>
-      <c r="F6" s="26">
-        <v>96138</v>
-      </c>
-      <c r="G6" s="26">
-        <v>993563</v>
+      <c r="E6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="H6" s="26">
         <v>0</v>
@@ -4838,7 +4849,9 @@
         <v>452</v>
       </c>
       <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="26">
+        <v>840</v>
+      </c>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -4921,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -4999,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
@@ -5035,55 +5048,59 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="E9" s="26">
+        <v>840</v>
+      </c>
+      <c r="F9" s="26">
+        <v>96138</v>
+      </c>
+      <c r="G9" s="26">
+        <v>993563</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="26">
+        <v>840</v>
+      </c>
+      <c r="L9" s="26">
+        <v>5916</v>
+      </c>
+      <c r="M9" s="26">
+        <v>993567</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
       <c r="O9" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="U9" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="V9" s="35" t="s">
-        <v>2</v>
-      </c>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
       <c r="W9" s="24"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
@@ -5109,13 +5126,13 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>53</v>
@@ -5139,21 +5156,25 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="35" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="28"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="26"/>
       <c r="S10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="28"/>
+      <c r="T10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
@@ -5179,10 +5200,10 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="30" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>77</v>
@@ -5193,23 +5214,23 @@
       <c r="E11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>55</v>
+      <c r="F11" s="26">
+        <v>95916</v>
+      </c>
+      <c r="G11" s="26">
+        <v>993558</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>8</v>
@@ -5249,10 +5270,10 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>77</v>
@@ -5263,11 +5284,11 @@
       <c r="E12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>55</v>
+      <c r="F12" s="26">
+        <v>95916</v>
+      </c>
+      <c r="G12" s="26">
+        <v>993558</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>57</v>
@@ -5319,10 +5340,10 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>77</v>
@@ -5333,11 +5354,11 @@
       <c r="E13" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>55</v>
+      <c r="F13" s="26">
+        <v>95916</v>
+      </c>
+      <c r="G13" s="26">
+        <v>993558</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>57</v>
@@ -5389,10 +5410,10 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>77</v>
@@ -5403,43 +5424,37 @@
       <c r="E14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>55</v>
+      <c r="F14" s="26">
+        <v>95916</v>
+      </c>
+      <c r="G14" s="26">
+        <v>993558</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="35" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="R14" s="28"/>
       <c r="S14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="T14" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>2</v>
-      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="28"/>
       <c r="W14" s="24"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
@@ -5465,10 +5480,10 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>77</v>
@@ -5479,35 +5494,43 @@
       <c r="E15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="35" t="s">
+      <c r="F15" s="26">
+        <v>95916</v>
+      </c>
+      <c r="G15" s="26">
+        <v>993558</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28" t="s">
-        <v>107</v>
-      </c>
+      <c r="R15" s="26"/>
       <c r="S15" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
+      <c r="T15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
@@ -5533,10 +5556,10 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>77</v>
@@ -5599,10 +5622,10 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>77</v>
@@ -5665,10 +5688,10 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>77</v>
@@ -5731,13 +5754,13 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>53</v>
@@ -5797,13 +5820,13 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>53</v>
@@ -5862,25 +5885,45 @@
       <c r="AR20" s="24"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="32"/>
+      <c r="A21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="O21" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
+      <c r="S21" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
@@ -5908,8 +5951,8 @@
       <c r="AR21" s="24"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -5954,14 +5997,14 @@
       <c r="AR22" s="24"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -6048,12 +6091,12 @@
     <row r="25" spans="1:44">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -6249,9 +6292,9 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
@@ -6284,17 +6327,17 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
@@ -9311,6 +9354,52 @@
       <c r="AQ95" s="24"/>
       <c r="AR95" s="24"/>
     </row>
+    <row r="96" spans="1:44">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="24"/>
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="24"/>
+      <c r="AI96" s="24"/>
+      <c r="AJ96" s="24"/>
+      <c r="AK96" s="24"/>
+      <c r="AL96" s="24"/>
+      <c r="AM96" s="24"/>
+      <c r="AN96" s="24"/>
+      <c r="AO96" s="24"/>
+      <c r="AP96" s="24"/>
+      <c r="AQ96" s="24"/>
+      <c r="AR96" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -349,6 +349,33 @@
   </si>
   <si>
     <t>TRS_067_D1</t>
+  </si>
+  <si>
+    <t>8349</t>
+  </si>
+  <si>
+    <t>8351</t>
+  </si>
+  <si>
+    <t>8355</t>
+  </si>
+  <si>
+    <t>8358</t>
+  </si>
+  <si>
+    <t>8364</t>
+  </si>
+  <si>
+    <t>8370</t>
+  </si>
+  <si>
+    <t>8373</t>
+  </si>
+  <si>
+    <t>8386</t>
+  </si>
+  <si>
+    <t>8388</t>
   </si>
 </sst>
 </file>
@@ -933,7 +960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,14 +976,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1817,27 +1844,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75">
@@ -4443,17 +4470,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75">
@@ -4790,7 +4818,9 @@
       </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
+      <c r="R5" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="S5" s="35" t="s">
         <v>68</v>
       </c>
@@ -5238,7 +5268,9 @@
       <c r="Q11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="28"/>
+      <c r="R11" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="S11" s="35" t="s">
         <v>68</v>
       </c>
@@ -5378,7 +5410,9 @@
       <c r="Q13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="28"/>
+      <c r="R13" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="S13" s="35" t="s">
         <v>68</v>
       </c>
@@ -5448,7 +5482,9 @@
       <c r="Q14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="28"/>
+      <c r="R14" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="S14" s="35" t="s">
         <v>68</v>
       </c>
@@ -5590,7 +5626,9 @@
       </c>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
+      <c r="R16" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="S16" s="35" t="s">
         <v>68</v>
       </c>
@@ -5722,7 +5760,9 @@
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
+      <c r="R18" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="S18" s="35" t="s">
         <v>68</v>
       </c>
@@ -5788,7 +5828,9 @@
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
+      <c r="R19" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="S19" s="35" t="s">
         <v>68</v>
       </c>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId1"/>
     <sheet name="CSM_TransactionOnStaffAcc" sheetId="8" r:id="rId2"/>
-    <sheet name="CSM_Transaction" sheetId="6" r:id="rId3"/>
+    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId3"/>
+    <sheet name="CSM_Transaction" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="159">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -351,31 +352,148 @@
     <t>TRS_067_D1</t>
   </si>
   <si>
-    <t>8349</t>
-  </si>
-  <si>
-    <t>8351</t>
-  </si>
-  <si>
-    <t>8355</t>
-  </si>
-  <si>
-    <t>8358</t>
-  </si>
-  <si>
-    <t>8364</t>
-  </si>
-  <si>
-    <t>8370</t>
-  </si>
-  <si>
-    <t>8373</t>
-  </si>
-  <si>
-    <t>8386</t>
-  </si>
-  <si>
-    <t>8388</t>
+    <t>TRS_188</t>
+  </si>
+  <si>
+    <t>TRS_188_D1</t>
+  </si>
+  <si>
+    <t>BranchCode_Debit</t>
+  </si>
+  <si>
+    <t>CurrencyCode_Debit</t>
+  </si>
+  <si>
+    <t>GLCode_Debit</t>
+  </si>
+  <si>
+    <t>CIFCode_Debit</t>
+  </si>
+  <si>
+    <t>SerialNo_Debit</t>
+  </si>
+  <si>
+    <t>BranchCode_Credit</t>
+  </si>
+  <si>
+    <t>CurrencyCode_Credit</t>
+  </si>
+  <si>
+    <t>GLCode_Credit</t>
+  </si>
+  <si>
+    <t>CIFCode_Credit</t>
+  </si>
+  <si>
+    <t>SerialNo_Credit</t>
+  </si>
+  <si>
+    <t>5916</t>
+  </si>
+  <si>
+    <t>993567</t>
+  </si>
+  <si>
+    <t>AccessAll</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Cash/Acc</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Authorize</t>
+  </si>
+  <si>
+    <t>All_Gl</t>
+  </si>
+  <si>
+    <t>All_TRX</t>
+  </si>
+  <si>
+    <t>TRS_189</t>
+  </si>
+  <si>
+    <t>TRS_189_D1</t>
+  </si>
+  <si>
+    <t>TRS_190</t>
+  </si>
+  <si>
+    <t>TRS_190_D1</t>
+  </si>
+  <si>
+    <t>TRS_191</t>
+  </si>
+  <si>
+    <t>TRS_191_D1</t>
+  </si>
+  <si>
+    <t>TRS_192</t>
+  </si>
+  <si>
+    <t>TRS_192_D1</t>
+  </si>
+  <si>
+    <t>TRS_193</t>
+  </si>
+  <si>
+    <t>TRS_193_D1</t>
+  </si>
+  <si>
+    <t>TRS_194</t>
+  </si>
+  <si>
+    <t>TRS_194_D1</t>
+  </si>
+  <si>
+    <t>TRS_195</t>
+  </si>
+  <si>
+    <t>TRS_195_D1</t>
+  </si>
+  <si>
+    <t>ChargeSchema-1</t>
+  </si>
+  <si>
+    <t>ChargeSchema-2</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>CIF-Type</t>
+  </si>
+  <si>
+    <t>TRS_196</t>
+  </si>
+  <si>
+    <t>TRS_197</t>
+  </si>
+  <si>
+    <t>TRS_198</t>
+  </si>
+  <si>
+    <t>TRS_199</t>
+  </si>
+  <si>
+    <t>TRS_196_D1</t>
+  </si>
+  <si>
+    <t>TRS_197_D1</t>
+  </si>
+  <si>
+    <t>TRS_198_D1</t>
+  </si>
+  <si>
+    <t>TRS_199_D1</t>
   </si>
 </sst>
 </file>
@@ -568,7 +686,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -649,6 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -960,7 +1081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,14 +1097,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1844,27 +1965,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75">
@@ -4462,26 +4583,1001 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="21" width="9.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
+        <v>840</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>840</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
+        <v>840</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
+        <v>840</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>840</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V6" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
+        <v>840</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>840</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>840</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>840</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>840</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V11" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>840</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V12" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>840</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1095</v>
+      </c>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75">
@@ -4818,9 +5914,7 @@
       </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
-      <c r="R5" s="28" t="s">
-        <v>118</v>
-      </c>
+      <c r="R5" s="28"/>
       <c r="S5" s="35" t="s">
         <v>68</v>
       </c>
@@ -5268,9 +6362,7 @@
       <c r="Q11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="R11" s="28"/>
       <c r="S11" s="35" t="s">
         <v>68</v>
       </c>
@@ -5410,9 +6502,7 @@
       <c r="Q13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="28" t="s">
-        <v>119</v>
-      </c>
+      <c r="R13" s="28"/>
       <c r="S13" s="35" t="s">
         <v>68</v>
       </c>
@@ -5482,9 +6572,7 @@
       <c r="Q14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="28" t="s">
-        <v>116</v>
-      </c>
+      <c r="R14" s="28"/>
       <c r="S14" s="35" t="s">
         <v>68</v>
       </c>
@@ -5626,9 +6714,7 @@
       </c>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
-      <c r="R16" s="28" t="s">
-        <v>117</v>
-      </c>
+      <c r="R16" s="28"/>
       <c r="S16" s="35" t="s">
         <v>68</v>
       </c>
@@ -5760,9 +6846,7 @@
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
-      <c r="R18" s="28" t="s">
-        <v>111</v>
-      </c>
+      <c r="R18" s="28"/>
       <c r="S18" s="35" t="s">
         <v>68</v>
       </c>
@@ -5828,9 +6912,7 @@
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
-      <c r="R19" s="28" t="s">
-        <v>112</v>
-      </c>
+      <c r="R19" s="28"/>
       <c r="S19" s="35" t="s">
         <v>68</v>
       </c>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>TRS_199_D1</t>
+  </si>
+  <si>
+    <t>502</t>
   </si>
 </sst>
 </file>
@@ -4586,7 +4589,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4696,7 +4699,7 @@
         <v>112</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D2" s="26">
         <v>1</v>
@@ -4768,7 +4771,7 @@
         <v>134</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -4840,7 +4843,7 @@
         <v>136</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -4912,7 +4915,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -4984,7 +4987,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -5056,7 +5059,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -5128,7 +5131,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -5200,7 +5203,7 @@
         <v>146</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>
@@ -5272,7 +5275,7 @@
         <v>155</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26">
         <v>1</v>
@@ -5344,7 +5347,7 @@
         <v>156</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -5416,7 +5419,7 @@
         <v>157</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -5488,7 +5491,7 @@
         <v>158</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="186">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -497,6 +497,84 @@
   </si>
   <si>
     <t>502</t>
+  </si>
+  <si>
+    <t>TRS_218</t>
+  </si>
+  <si>
+    <t>TRS_218_D1</t>
+  </si>
+  <si>
+    <t>TRS_219</t>
+  </si>
+  <si>
+    <t>TRS_219_D1</t>
+  </si>
+  <si>
+    <t>TRS_220</t>
+  </si>
+  <si>
+    <t>TRS_220_D1</t>
+  </si>
+  <si>
+    <t>TRS_221</t>
+  </si>
+  <si>
+    <t>TRS_221_D1</t>
+  </si>
+  <si>
+    <t>TRS_222</t>
+  </si>
+  <si>
+    <t>TRS_222_D1</t>
+  </si>
+  <si>
+    <t>TRS_223</t>
+  </si>
+  <si>
+    <t>TRS_223_D1</t>
+  </si>
+  <si>
+    <t>TRS_224</t>
+  </si>
+  <si>
+    <t>TRS_224_D1</t>
+  </si>
+  <si>
+    <t>TRS_225_D1</t>
+  </si>
+  <si>
+    <t>TRS_225</t>
+  </si>
+  <si>
+    <t>TRS_226_D1</t>
+  </si>
+  <si>
+    <t>TRS_226</t>
+  </si>
+  <si>
+    <t>TRS_227_D1</t>
+  </si>
+  <si>
+    <t>TRS_227</t>
+  </si>
+  <si>
+    <t>TRS_228_D1</t>
+  </si>
+  <si>
+    <t>TRS_228</t>
+  </si>
+  <si>
+    <t>TRS_229</t>
+  </si>
+  <si>
+    <t>TRS_229_D1</t>
+  </si>
+  <si>
+    <t>Allow_Overdraw</t>
+  </si>
+  <si>
+    <t>Don't Notify and Proceed</t>
   </si>
 </sst>
 </file>
@@ -689,7 +767,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -774,6 +852,22 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="3"/>
@@ -4586,10 +4680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4608,16 +4702,18 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" customWidth="1"/>
-    <col min="20" max="21" width="9.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="22" width="9.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4660,38 +4756,41 @@
       <c r="N1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="43" t="s">
         <v>111</v>
       </c>
@@ -4737,33 +4836,34 @@
       <c r="O2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10">
         <v>1095</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="V2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="W2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="X2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="43" t="s">
         <v>133</v>
       </c>
@@ -4809,33 +4909,34 @@
       <c r="O3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10">
         <v>1095</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="T3" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="U3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="V3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="W3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="X3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Y3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="43" t="s">
         <v>135</v>
       </c>
@@ -4881,33 +4982,34 @@
       <c r="O4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10">
         <v>1095</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="T4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="U4" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="V4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="W4" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="Y4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="43" t="s">
         <v>137</v>
       </c>
@@ -4953,33 +5055,34 @@
       <c r="O5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10">
         <v>1095</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="T5" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="U5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="V5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="W5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="X5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="Y5" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="43" t="s">
         <v>139</v>
       </c>
@@ -5025,33 +5128,34 @@
       <c r="O6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
         <v>1095</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="T6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="U6" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="V6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="W6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="Y6" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="43" t="s">
         <v>141</v>
       </c>
@@ -5097,33 +5201,34 @@
       <c r="O7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10">
         <v>1095</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="T7" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="U7" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="W7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="X7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="Y7" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="43" t="s">
         <v>143</v>
       </c>
@@ -5169,33 +5274,34 @@
       <c r="O8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10">
         <v>1095</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="T8" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="U8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="43" t="s">
         <v>145</v>
       </c>
@@ -5241,33 +5347,34 @@
       <c r="O9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10">
         <v>1095</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="26"/>
+      <c r="S9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="T9" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="U9" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="V9" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="W9" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="X9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="Y9" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="43" t="s">
         <v>151</v>
       </c>
@@ -5313,33 +5420,34 @@
       <c r="O10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10">
         <v>1095</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="26"/>
+      <c r="S10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="T10" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="U10" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="V10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="35" t="s">
+      <c r="W10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="X10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="Y10" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
@@ -5385,33 +5493,34 @@
       <c r="O11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10">
         <v>1095</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="26"/>
+      <c r="S11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="T11" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="U11" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="V11" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="W11" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="X11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="35" t="s">
+      <c r="Y11" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="43" t="s">
         <v>153</v>
       </c>
@@ -5457,33 +5566,34 @@
       <c r="O12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10">
         <v>1095</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="35" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="T12" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T12" s="35" t="s">
+      <c r="U12" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="V12" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="W12" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="X12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="35" t="s">
+      <c r="Y12" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="43" t="s">
         <v>154</v>
       </c>
@@ -5529,34 +5639,663 @@
       <c r="O13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10">
         <v>1095</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="35" t="s">
+      <c r="R13" s="26"/>
+      <c r="S13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="T13" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="U13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="V13" s="35" t="s">
+      <c r="W13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="W13" s="35" t="s">
+      <c r="X13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="35" t="s">
+      <c r="Y13" s="35" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>840</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="J15" s="26">
+        <v>840</v>
+      </c>
+      <c r="K15" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L15" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>840</v>
+      </c>
+      <c r="F16" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26">
+        <v>840</v>
+      </c>
+      <c r="K16" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L16" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>840</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="26">
+        <v>840</v>
+      </c>
+      <c r="K17" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L17" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26">
+        <v>840</v>
+      </c>
+      <c r="F18" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26">
+        <v>840</v>
+      </c>
+      <c r="K18" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L18" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26">
+        <v>840</v>
+      </c>
+      <c r="F19" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26">
+        <v>840</v>
+      </c>
+      <c r="K19" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L19" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>840</v>
+      </c>
+      <c r="F20" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+      <c r="J20" s="26">
+        <v>840</v>
+      </c>
+      <c r="K20" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L20" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
+        <v>840</v>
+      </c>
+      <c r="F21" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
+      <c r="J21" s="26">
+        <v>840</v>
+      </c>
+      <c r="K21" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L21" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+      <c r="N21" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="26">
+        <v>840</v>
+      </c>
+      <c r="F22" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26">
+        <v>840</v>
+      </c>
+      <c r="K22" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L22" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26">
+        <v>840</v>
+      </c>
+      <c r="F23" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
+      <c r="J23" s="26">
+        <v>840</v>
+      </c>
+      <c r="K23" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L23" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26">
+        <v>840</v>
+      </c>
+      <c r="F24" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26">
+        <v>840</v>
+      </c>
+      <c r="K24" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L24" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26">
+        <v>840</v>
+      </c>
+      <c r="F25" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1</v>
+      </c>
+      <c r="J25" s="26">
+        <v>840</v>
+      </c>
+      <c r="K25" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L25" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26">
+        <v>840</v>
+      </c>
+      <c r="F26" s="3">
+        <v>400402</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="26">
+        <v>840</v>
+      </c>
+      <c r="K26" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L26" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <v>100000</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId1"/>
-    <sheet name="CSM_TransactionOnStaffAcc" sheetId="8" r:id="rId2"/>
-    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId3"/>
-    <sheet name="CSM_Transaction" sheetId="6" r:id="rId4"/>
+    <sheet name="SadsLogin" sheetId="13" r:id="rId1"/>
+    <sheet name="CSMParam_login" sheetId="12" r:id="rId2"/>
+    <sheet name="CSM_Login" sheetId="11" r:id="rId3"/>
+    <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId4"/>
+    <sheet name="CSM_TransactionOnStaffAcc" sheetId="8" r:id="rId5"/>
+    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId6"/>
+    <sheet name="CSM_Transaction" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="231">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -575,6 +578,141 @@
   </si>
   <si>
     <t>Don't Notify and Proceed</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>CSMUser1</t>
+  </si>
+  <si>
+    <t>CSMTellerUser</t>
+  </si>
+  <si>
+    <t>KARTHITA</t>
+  </si>
+  <si>
+    <t>CSMUser2</t>
+  </si>
+  <si>
+    <t>CSMParamUser1</t>
+  </si>
+  <si>
+    <t>CSMParamTellerUser</t>
+  </si>
+  <si>
+    <t>CSMParamUser2</t>
+  </si>
+  <si>
+    <t>Sadsuser1</t>
+  </si>
+  <si>
+    <t>SYSADM</t>
+  </si>
+  <si>
+    <t>Sadsuser2</t>
+  </si>
+  <si>
+    <t>SYSADM1</t>
+  </si>
+  <si>
+    <t>TRS_245</t>
+  </si>
+  <si>
+    <t>TRS_245_D1</t>
+  </si>
+  <si>
+    <t>993652</t>
+  </si>
+  <si>
+    <t>Fc</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>TRS_246</t>
+  </si>
+  <si>
+    <t>TRS_246_D1</t>
+  </si>
+  <si>
+    <t>TRS_247</t>
+  </si>
+  <si>
+    <t>TRS_247_D1</t>
+  </si>
+  <si>
+    <t>TRS_248</t>
+  </si>
+  <si>
+    <t>TRS_248_D1</t>
+  </si>
+  <si>
+    <t>TRS_249</t>
+  </si>
+  <si>
+    <t>TRS_249_D1</t>
+  </si>
+  <si>
+    <t>TRS_250</t>
+  </si>
+  <si>
+    <t>TRS_250_D1</t>
+  </si>
+  <si>
+    <t>TRS_251</t>
+  </si>
+  <si>
+    <t>TRS_251_D1</t>
+  </si>
+  <si>
+    <t>TRS_252</t>
+  </si>
+  <si>
+    <t>TRS_252_D1</t>
+  </si>
+  <si>
+    <t>TRS_253</t>
+  </si>
+  <si>
+    <t>TRS_253_D1</t>
+  </si>
+  <si>
+    <t>TRS_254</t>
+  </si>
+  <si>
+    <t>TRS_254_D1</t>
+  </si>
+  <si>
+    <t>TRS_255</t>
+  </si>
+  <si>
+    <t>TRS_255_D1</t>
+  </si>
+  <si>
+    <t>TRS_256</t>
+  </si>
+  <si>
+    <t>TRS_256_D1</t>
+  </si>
+  <si>
+    <t>993654</t>
+  </si>
+  <si>
+    <t>522</t>
   </si>
 </sst>
 </file>
@@ -584,7 +722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -637,8 +775,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +825,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -755,8 +911,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -766,8 +937,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -868,8 +1041,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="6"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="5"/>
     <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,13 +1358,252 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53" style="51" collapsed="1"/>
+    <col min="2" max="2" width="185.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="164.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="53" style="51" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="52">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="52">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="10.1945" bottom="10.1945" header="9.9976000000000003" footer="9.9976000000000003"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="103" style="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="125.28515625" style="51" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="121" style="51" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="153" style="51" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="193.140625" style="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="53" style="51" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="52">
+        <v>123</v>
+      </c>
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="52">
+        <v>123</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="52">
+        <v>123</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="10.1945" bottom="10.1945" header="9.9976000000000003" footer="9.9976000000000003"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="124.5703125" style="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="152.140625" style="51" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="118.28515625" style="51" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="99.5703125" style="51" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="117.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="53" style="51" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="52">
+        <v>123</v>
+      </c>
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="52">
+        <v>123</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="52">
+        <v>123</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="10.1945" bottom="10.1945" header="9.9976000000000003" footer="9.9976000000000003"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -2052,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM71"/>
   <sheetViews>
@@ -4678,12 +5097,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4702,18 +5121,18 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
-    <col min="21" max="22" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" customWidth="1"/>
+    <col min="15" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="22" max="23" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4760,37 +5179,40 @@
         <v>4</v>
       </c>
       <c r="P1" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="43" t="s">
         <v>111</v>
       </c>
@@ -4837,33 +5259,34 @@
         <v>8</v>
       </c>
       <c r="P2" s="10"/>
-      <c r="Q2" s="10">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
         <v>1095</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="V2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="W2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="X2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Z2" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="43" t="s">
         <v>133</v>
       </c>
@@ -4910,33 +5333,34 @@
         <v>8</v>
       </c>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10">
         <v>1095</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="U3" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="V3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="W3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="X3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Y3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Z3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="43" t="s">
         <v>135</v>
       </c>
@@ -4983,33 +5407,34 @@
         <v>8</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="10">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10">
         <v>1095</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="U4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="V4" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="W4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="Y4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Z4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="43" t="s">
         <v>137</v>
       </c>
@@ -5056,33 +5481,34 @@
         <v>8</v>
       </c>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10">
         <v>1095</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="26"/>
+      <c r="T5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="U5" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="V5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="W5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="X5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="Y5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Z5" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="43" t="s">
         <v>139</v>
       </c>
@@ -5129,33 +5555,34 @@
         <v>8</v>
       </c>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
         <v>1095</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="26"/>
+      <c r="T6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="U6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="V6" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="W6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="Y6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Z6" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="43" t="s">
         <v>141</v>
       </c>
@@ -5202,33 +5629,34 @@
         <v>8</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10">
         <v>1095</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="U7" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="W7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="X7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="Y7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Z7" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="43" t="s">
         <v>143</v>
       </c>
@@ -5275,33 +5703,34 @@
         <v>8</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="10">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10">
         <v>1095</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="U8" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Z8" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="43" t="s">
         <v>145</v>
       </c>
@@ -5348,33 +5777,34 @@
         <v>8</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" s="10">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10">
         <v>1095</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="26"/>
+      <c r="T9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="U9" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="V9" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="W9" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="X9" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="Y9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" s="35" t="s">
+      <c r="Z9" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="43" t="s">
         <v>151</v>
       </c>
@@ -5421,33 +5851,34 @@
         <v>8</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="10">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10">
         <v>1095</v>
       </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="26"/>
+      <c r="T10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="U10" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="V10" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V10" s="35" t="s">
+      <c r="W10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="X10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="Y10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="35" t="s">
+      <c r="Z10" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
@@ -5494,33 +5925,34 @@
         <v>8</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" s="10">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10">
         <v>1095</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="26"/>
+      <c r="T11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="U11" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="V11" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="W11" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="X11" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X11" s="35" t="s">
+      <c r="Y11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="35" t="s">
+      <c r="Z11" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="43" t="s">
         <v>153</v>
       </c>
@@ -5567,33 +5999,34 @@
         <v>8</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="10">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
         <v>1095</v>
       </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="26"/>
+      <c r="T12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="35" t="s">
+      <c r="U12" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="V12" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="W12" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="X12" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X12" s="35" t="s">
+      <c r="Y12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" s="35" t="s">
+      <c r="Z12" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="43" t="s">
         <v>154</v>
       </c>
@@ -5640,33 +6073,34 @@
         <v>8</v>
       </c>
       <c r="P13" s="10"/>
-      <c r="Q13" s="10">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10">
         <v>1095</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="35" t="s">
+      <c r="S13" s="26"/>
+      <c r="T13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="U13" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="V13" s="35" t="s">
+      <c r="W13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W13" s="35" t="s">
+      <c r="X13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="X13" s="35" t="s">
+      <c r="Y13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="35" t="s">
+      <c r="Z13" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="35"/>
@@ -5683,17 +6117,18 @@
       <c r="N14" s="35"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
       <c r="Y14" s="47"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="47"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="43" t="s">
         <v>160</v>
       </c>
@@ -5739,11 +6174,12 @@
       <c r="O15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="49" t="s">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16" s="43" t="s">
         <v>162</v>
       </c>
@@ -5789,11 +6225,12 @@
       <c r="O16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="49" t="s">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="43" t="s">
         <v>164</v>
       </c>
@@ -5839,11 +6276,12 @@
       <c r="O17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="49" t="s">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="43" t="s">
         <v>166</v>
       </c>
@@ -5889,11 +6327,12 @@
       <c r="O18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="43" t="s">
         <v>168</v>
       </c>
@@ -5939,11 +6378,12 @@
       <c r="O19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="49" t="s">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="43" t="s">
         <v>170</v>
       </c>
@@ -5989,11 +6429,12 @@
       <c r="O20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="49" t="s">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="43" t="s">
         <v>172</v>
       </c>
@@ -6039,11 +6480,12 @@
       <c r="O21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="43" t="s">
         <v>175</v>
       </c>
@@ -6089,11 +6531,12 @@
       <c r="O22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="49" t="s">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="43" t="s">
         <v>177</v>
       </c>
@@ -6139,11 +6582,12 @@
       <c r="O23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="49" t="s">
+      <c r="P23" s="10"/>
+      <c r="Q23" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="43" t="s">
         <v>179</v>
       </c>
@@ -6189,11 +6633,12 @@
       <c r="O24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="49" t="s">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="43" t="s">
         <v>181</v>
       </c>
@@ -6239,11 +6684,12 @@
       <c r="O25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="49" t="s">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="43" t="s">
         <v>182</v>
       </c>
@@ -6289,8 +6735,628 @@
       <c r="O26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P26" s="49" t="s">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="49" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="54"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26">
+        <v>840</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1</v>
+      </c>
+      <c r="J28" s="26">
+        <v>840</v>
+      </c>
+      <c r="K28" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L28" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26">
+        <v>840</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
+        <v>840</v>
+      </c>
+      <c r="K29" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L29" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26">
+        <v>840</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>1</v>
+      </c>
+      <c r="J30" s="26">
+        <v>840</v>
+      </c>
+      <c r="K30" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L30" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+      <c r="N30" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
+        <v>840</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
+        <v>1</v>
+      </c>
+      <c r="J31" s="26">
+        <v>840</v>
+      </c>
+      <c r="K31" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L31" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M31" s="26">
+        <v>0</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="26">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
+        <v>840</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="26">
+        <v>1</v>
+      </c>
+      <c r="J32" s="26">
+        <v>840</v>
+      </c>
+      <c r="K32" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L32" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26">
+        <v>840</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>1</v>
+      </c>
+      <c r="J33" s="26">
+        <v>840</v>
+      </c>
+      <c r="K33" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L33" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M33" s="26">
+        <v>0</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26">
+        <v>840</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
+        <v>1</v>
+      </c>
+      <c r="J34" s="26">
+        <v>840</v>
+      </c>
+      <c r="K34" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L34" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M34" s="26">
+        <v>0</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26">
+        <v>840</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7845</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="26">
+        <v>1</v>
+      </c>
+      <c r="J35" s="26">
+        <v>840</v>
+      </c>
+      <c r="K35" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L35" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M35" s="26">
+        <v>0</v>
+      </c>
+      <c r="N35" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="26">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26">
+        <v>840</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1617</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0</v>
+      </c>
+      <c r="I36" s="26">
+        <v>1</v>
+      </c>
+      <c r="J36" s="26">
+        <v>840</v>
+      </c>
+      <c r="K36" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L36" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M36" s="26">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="26">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26">
+        <v>840</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1617</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26">
+        <v>1</v>
+      </c>
+      <c r="J37" s="26">
+        <v>840</v>
+      </c>
+      <c r="K37" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L37" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M37" s="26">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="26">
+        <v>1</v>
+      </c>
+      <c r="E38" s="26">
+        <v>840</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1617</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0</v>
+      </c>
+      <c r="I38" s="26">
+        <v>1</v>
+      </c>
+      <c r="J38" s="26">
+        <v>840</v>
+      </c>
+      <c r="K38" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L38" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0</v>
+      </c>
+      <c r="N38" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="26">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26">
+        <v>840</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1617</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+      <c r="I39" s="26">
+        <v>1</v>
+      </c>
+      <c r="J39" s="26">
+        <v>840</v>
+      </c>
+      <c r="K39" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L39" s="26">
+        <v>993567</v>
+      </c>
+      <c r="M39" s="26">
+        <v>0</v>
+      </c>
+      <c r="N39" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="10">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6299,7 +7365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR96"/>
   <sheetViews>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="236">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -713,6 +713,21 @@
   </si>
   <si>
     <t>522</t>
+  </si>
+  <si>
+    <t>TRS_393</t>
+  </si>
+  <si>
+    <t>TRS_393_D1</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>TRS_394</t>
+  </si>
+  <si>
+    <t>TRS_394_D1</t>
   </si>
 </sst>
 </file>
@@ -5099,10 +5114,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6162,8 +6177,8 @@
       <c r="K15" s="26">
         <v>95916</v>
       </c>
-      <c r="L15" s="26">
-        <v>993567</v>
+      <c r="L15" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M15" s="26">
         <v>0</v>
@@ -6213,8 +6228,8 @@
       <c r="K16" s="26">
         <v>95916</v>
       </c>
-      <c r="L16" s="26">
-        <v>993567</v>
+      <c r="L16" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M16" s="26">
         <v>0</v>
@@ -6264,8 +6279,8 @@
       <c r="K17" s="26">
         <v>95916</v>
       </c>
-      <c r="L17" s="26">
-        <v>993567</v>
+      <c r="L17" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M17" s="26">
         <v>0</v>
@@ -6315,8 +6330,8 @@
       <c r="K18" s="26">
         <v>95916</v>
       </c>
-      <c r="L18" s="26">
-        <v>993567</v>
+      <c r="L18" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M18" s="26">
         <v>0</v>
@@ -6366,8 +6381,8 @@
       <c r="K19" s="26">
         <v>95916</v>
       </c>
-      <c r="L19" s="26">
-        <v>993567</v>
+      <c r="L19" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M19" s="26">
         <v>0</v>
@@ -6417,8 +6432,8 @@
       <c r="K20" s="26">
         <v>95916</v>
       </c>
-      <c r="L20" s="26">
-        <v>993567</v>
+      <c r="L20" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M20" s="26">
         <v>0</v>
@@ -6468,8 +6483,8 @@
       <c r="K21" s="26">
         <v>95916</v>
       </c>
-      <c r="L21" s="26">
-        <v>993567</v>
+      <c r="L21" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M21" s="26">
         <v>0</v>
@@ -6519,8 +6534,8 @@
       <c r="K22" s="26">
         <v>95916</v>
       </c>
-      <c r="L22" s="26">
-        <v>993567</v>
+      <c r="L22" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M22" s="26">
         <v>0</v>
@@ -6570,8 +6585,8 @@
       <c r="K23" s="26">
         <v>95916</v>
       </c>
-      <c r="L23" s="26">
-        <v>993567</v>
+      <c r="L23" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M23" s="26">
         <v>0</v>
@@ -6621,8 +6636,8 @@
       <c r="K24" s="26">
         <v>95916</v>
       </c>
-      <c r="L24" s="26">
-        <v>993567</v>
+      <c r="L24" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M24" s="26">
         <v>0</v>
@@ -6672,8 +6687,8 @@
       <c r="K25" s="26">
         <v>95916</v>
       </c>
-      <c r="L25" s="26">
-        <v>993567</v>
+      <c r="L25" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M25" s="26">
         <v>0</v>
@@ -6723,8 +6738,8 @@
       <c r="K26" s="26">
         <v>95916</v>
       </c>
-      <c r="L26" s="26">
-        <v>993567</v>
+      <c r="L26" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M26" s="26">
         <v>0</v>
@@ -6752,7 +6767,9 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="10"/>
@@ -6793,8 +6810,8 @@
       <c r="K28" s="26">
         <v>95916</v>
       </c>
-      <c r="L28" s="26">
-        <v>993567</v>
+      <c r="L28" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M28" s="26">
         <v>0</v>
@@ -6843,8 +6860,8 @@
       <c r="K29" s="26">
         <v>95916</v>
       </c>
-      <c r="L29" s="26">
-        <v>993567</v>
+      <c r="L29" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M29" s="26">
         <v>0</v>
@@ -6893,8 +6910,8 @@
       <c r="K30" s="26">
         <v>95916</v>
       </c>
-      <c r="L30" s="26">
-        <v>993567</v>
+      <c r="L30" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M30" s="26">
         <v>0</v>
@@ -6943,8 +6960,8 @@
       <c r="K31" s="26">
         <v>95916</v>
       </c>
-      <c r="L31" s="26">
-        <v>993567</v>
+      <c r="L31" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M31" s="26">
         <v>0</v>
@@ -6993,8 +7010,8 @@
       <c r="K32" s="26">
         <v>95916</v>
       </c>
-      <c r="L32" s="26">
-        <v>993567</v>
+      <c r="L32" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M32" s="26">
         <v>0</v>
@@ -7043,8 +7060,8 @@
       <c r="K33" s="26">
         <v>95916</v>
       </c>
-      <c r="L33" s="26">
-        <v>993567</v>
+      <c r="L33" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M33" s="26">
         <v>0</v>
@@ -7093,8 +7110,8 @@
       <c r="K34" s="26">
         <v>95916</v>
       </c>
-      <c r="L34" s="26">
-        <v>993567</v>
+      <c r="L34" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M34" s="26">
         <v>0</v>
@@ -7143,8 +7160,8 @@
       <c r="K35" s="26">
         <v>95916</v>
       </c>
-      <c r="L35" s="26">
-        <v>993567</v>
+      <c r="L35" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M35" s="26">
         <v>0</v>
@@ -7193,8 +7210,8 @@
       <c r="K36" s="26">
         <v>95916</v>
       </c>
-      <c r="L36" s="26">
-        <v>993567</v>
+      <c r="L36" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M36" s="26">
         <v>0</v>
@@ -7243,8 +7260,8 @@
       <c r="K37" s="26">
         <v>95916</v>
       </c>
-      <c r="L37" s="26">
-        <v>993567</v>
+      <c r="L37" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M37" s="26">
         <v>0</v>
@@ -7293,8 +7310,8 @@
       <c r="K38" s="26">
         <v>95916</v>
       </c>
-      <c r="L38" s="26">
-        <v>993567</v>
+      <c r="L38" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M38" s="26">
         <v>0</v>
@@ -7343,8 +7360,8 @@
       <c r="K39" s="26">
         <v>95916</v>
       </c>
-      <c r="L39" s="26">
-        <v>993567</v>
+      <c r="L39" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M39" s="26">
         <v>0</v>
@@ -7358,6 +7375,120 @@
       <c r="P39" s="10">
         <v>586</v>
       </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26">
+        <v>840</v>
+      </c>
+      <c r="F41" s="3">
+        <v>95916</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0</v>
+      </c>
+      <c r="I41" s="26">
+        <v>1</v>
+      </c>
+      <c r="J41" s="26">
+        <v>840</v>
+      </c>
+      <c r="K41" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="26">
+        <v>0</v>
+      </c>
+      <c r="N41" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="26">
+        <v>840</v>
+      </c>
+      <c r="F42" s="3">
+        <v>95916</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="26">
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
+        <v>1</v>
+      </c>
+      <c r="J42" s="26">
+        <v>840</v>
+      </c>
+      <c r="K42" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L42" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="26">
+        <v>0</v>
+      </c>
+      <c r="N42" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -12,15 +12,16 @@
     <sheet name="CSM_Login" sheetId="11" r:id="rId3"/>
     <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId4"/>
     <sheet name="CSM_TransactionOnStaffAcc" sheetId="8" r:id="rId5"/>
-    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId6"/>
-    <sheet name="CSM_Transaction" sheetId="6" r:id="rId7"/>
+    <sheet name="CSM_TransferAccount" sheetId="14" r:id="rId6"/>
+    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId7"/>
+    <sheet name="CSM_Transaction" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="273">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -728,6 +729,117 @@
   </si>
   <si>
     <t>TRS_394_D1</t>
+  </si>
+  <si>
+    <t>ModeOfpayment</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>DestinationBranch</t>
+  </si>
+  <si>
+    <t>BranchCodeFA</t>
+  </si>
+  <si>
+    <t>GLCodeFA</t>
+  </si>
+  <si>
+    <t>CIFCodeFA</t>
+  </si>
+  <si>
+    <t>SLCodeFA</t>
+  </si>
+  <si>
+    <t>BranchCodeTA</t>
+  </si>
+  <si>
+    <t>CYCodeFA</t>
+  </si>
+  <si>
+    <t>CYCodeTA</t>
+  </si>
+  <si>
+    <t>GLCodeTA</t>
+  </si>
+  <si>
+    <t>CIFCodeTA</t>
+  </si>
+  <si>
+    <t>SLCodeTA</t>
+  </si>
+  <si>
+    <t>TA_001</t>
+  </si>
+  <si>
+    <t>TA_001_D1</t>
+  </si>
+  <si>
+    <t>From Branch To Branch</t>
+  </si>
+  <si>
+    <t>TA_002</t>
+  </si>
+  <si>
+    <t>TA_002_D1</t>
+  </si>
+  <si>
+    <t>TA_003</t>
+  </si>
+  <si>
+    <t>TA_003_D1</t>
+  </si>
+  <si>
+    <t>Destination_GL</t>
+  </si>
+  <si>
+    <t>TA_026</t>
+  </si>
+  <si>
+    <t>TA_026_D1</t>
+  </si>
+  <si>
+    <t>From GL To GL</t>
+  </si>
+  <si>
+    <t>TA_027</t>
+  </si>
+  <si>
+    <t>TA_027_D1</t>
+  </si>
+  <si>
+    <t>TA_028</t>
+  </si>
+  <si>
+    <t>TA_028_D1</t>
+  </si>
+  <si>
+    <t>TA_029</t>
+  </si>
+  <si>
+    <t>TA_029_D1</t>
+  </si>
+  <si>
+    <t>TA_030</t>
+  </si>
+  <si>
+    <t>TA_030_D1</t>
+  </si>
+  <si>
+    <t>TA_031</t>
+  </si>
+  <si>
+    <t>TA_031_D1</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -797,7 +909,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,8 +964,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -941,6 +1059,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -955,7 +1086,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1061,6 +1192,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="6"/>
@@ -1373,7 +1516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5114,10 +5257,1273 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="61">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>840</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1617</v>
+      </c>
+      <c r="I2" s="3">
+        <v>993654</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>840</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1617</v>
+      </c>
+      <c r="N2" s="3">
+        <v>993654</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="61">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>840</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1617</v>
+      </c>
+      <c r="I3" s="3">
+        <v>993654</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>840</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1617</v>
+      </c>
+      <c r="N3" s="3">
+        <v>993654</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="61">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>840</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1617</v>
+      </c>
+      <c r="I4" s="3">
+        <v>993654</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>840</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1617</v>
+      </c>
+      <c r="N4" s="3">
+        <v>993654</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="61">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>840</v>
+      </c>
+      <c r="H5" s="3">
+        <v>95916</v>
+      </c>
+      <c r="I5" s="3">
+        <v>993558</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>840</v>
+      </c>
+      <c r="M5" s="3">
+        <v>95916</v>
+      </c>
+      <c r="N5" s="3">
+        <v>993558</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7845</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="61">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>840</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7845</v>
+      </c>
+      <c r="I6" s="3">
+        <v>993652</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>840</v>
+      </c>
+      <c r="M6" s="3">
+        <v>95916</v>
+      </c>
+      <c r="N6" s="3">
+        <v>993558</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5688</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="61">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>840</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7845</v>
+      </c>
+      <c r="I7" s="3">
+        <v>993652</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>840</v>
+      </c>
+      <c r="M7" s="3">
+        <v>95916</v>
+      </c>
+      <c r="N7" s="3">
+        <v>993558</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5688</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="61">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>840</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1617</v>
+      </c>
+      <c r="I8" s="3">
+        <v>993654</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>840</v>
+      </c>
+      <c r="M8" s="3">
+        <v>95916</v>
+      </c>
+      <c r="N8" s="3">
+        <v>993558</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>7845</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="61">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>840</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1617</v>
+      </c>
+      <c r="I9" s="3">
+        <v>993654</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>840</v>
+      </c>
+      <c r="M9" s="3">
+        <v>95916</v>
+      </c>
+      <c r="N9" s="3">
+        <v>993558</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>7845</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="61">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>840</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1617</v>
+      </c>
+      <c r="I10" s="3">
+        <v>993654</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>840</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1617</v>
+      </c>
+      <c r="N10" s="3">
+        <v>993654</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>7845</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5136,18 +6542,20 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" customWidth="1"/>
-    <col min="22" max="23" width="9.85546875" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="24" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75">
+    <row r="1" spans="1:27" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5194,40 +6602,43 @@
         <v>4</v>
       </c>
       <c r="P1" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="43" t="s">
         <v>111</v>
       </c>
@@ -5275,33 +6686,34 @@
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="10">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10">
         <v>1095</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="V2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="W2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="X2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Z2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="AA2" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="43" t="s">
         <v>133</v>
       </c>
@@ -5349,33 +6761,34 @@
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10">
         <v>1095</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="V3" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="W3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="X3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Y3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Z3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="AA3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="43" t="s">
         <v>135</v>
       </c>
@@ -5423,33 +6836,34 @@
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
         <v>1095</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="26"/>
+      <c r="U4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="V4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="W4" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="Y4" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Z4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="AA4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="43" t="s">
         <v>137</v>
       </c>
@@ -5497,33 +6911,34 @@
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10">
         <v>1095</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="V5" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="W5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="X5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="Y5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Z5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="AA5" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="43" t="s">
         <v>139</v>
       </c>
@@ -5571,33 +6986,34 @@
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10">
         <v>1095</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="35" t="s">
+      <c r="T6" s="26"/>
+      <c r="U6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="V6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="W6" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="Y6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Z6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="AA6" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="43" t="s">
         <v>141</v>
       </c>
@@ -5645,33 +7061,34 @@
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10">
         <v>1095</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="35" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="W7" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="X7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="Y7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Z7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="AA7" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="43" t="s">
         <v>143</v>
       </c>
@@ -5719,33 +7136,34 @@
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
         <v>1095</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Z8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="AA8" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="43" t="s">
         <v>145</v>
       </c>
@@ -5793,33 +7211,34 @@
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
         <v>1095</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="V9" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="W9" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="X9" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="Y9" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y9" s="35" t="s">
+      <c r="Z9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="AA9" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="43" t="s">
         <v>151</v>
       </c>
@@ -5867,33 +7286,34 @@
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10">
         <v>1095</v>
       </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="V10" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V10" s="35" t="s">
+      <c r="W10" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="X10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="Y10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y10" s="35" t="s">
+      <c r="Z10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="35" t="s">
+      <c r="AA10" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
@@ -5941,33 +7361,34 @@
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
         <v>1095</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="26"/>
+      <c r="U11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="V11" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="W11" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="X11" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="35" t="s">
+      <c r="Y11" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y11" s="35" t="s">
+      <c r="Z11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="35" t="s">
+      <c r="AA11" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="43" t="s">
         <v>153</v>
       </c>
@@ -6015,33 +7436,34 @@
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10">
         <v>1095</v>
       </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="35" t="s">
+      <c r="T12" s="26"/>
+      <c r="U12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="V12" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="W12" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="X12" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X12" s="35" t="s">
+      <c r="Y12" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y12" s="35" t="s">
+      <c r="Z12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="35" t="s">
+      <c r="AA12" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="43" t="s">
         <v>154</v>
       </c>
@@ -6089,33 +7511,34 @@
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10">
         <v>1095</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="35" t="s">
+      <c r="T13" s="26"/>
+      <c r="U13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V13" s="35" t="s">
+      <c r="W13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W13" s="35" t="s">
+      <c r="X13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X13" s="35" t="s">
+      <c r="Y13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y13" s="35" t="s">
+      <c r="Z13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="35" t="s">
+      <c r="AA13" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="35"/>
@@ -6133,17 +7556,18 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
       <c r="Y14" s="47"/>
       <c r="Z14" s="47"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="47"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="43" t="s">
         <v>160</v>
       </c>
@@ -6190,11 +7614,12 @@
         <v>8</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="49" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="43" t="s">
         <v>162</v>
       </c>
@@ -6241,11 +7666,12 @@
         <v>8</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="43" t="s">
         <v>164</v>
       </c>
@@ -6292,11 +7718,12 @@
         <v>8</v>
       </c>
       <c r="P17" s="10"/>
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="43" t="s">
         <v>166</v>
       </c>
@@ -6343,11 +7770,12 @@
         <v>8</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="49" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="43" t="s">
         <v>168</v>
       </c>
@@ -6394,11 +7822,12 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="49" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="43" t="s">
         <v>170</v>
       </c>
@@ -6445,11 +7874,12 @@
         <v>8</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="43" t="s">
         <v>172</v>
       </c>
@@ -6496,11 +7926,12 @@
         <v>8</v>
       </c>
       <c r="P21" s="10"/>
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="43" t="s">
         <v>175</v>
       </c>
@@ -6547,11 +7978,12 @@
         <v>8</v>
       </c>
       <c r="P22" s="10"/>
-      <c r="Q22" s="49" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="43" t="s">
         <v>177</v>
       </c>
@@ -6598,11 +8030,12 @@
         <v>8</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="49" t="s">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="43" t="s">
         <v>179</v>
       </c>
@@ -6649,11 +8082,12 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="43" t="s">
         <v>181</v>
       </c>
@@ -6700,11 +8134,12 @@
         <v>8</v>
       </c>
       <c r="P25" s="10"/>
-      <c r="Q25" s="49" t="s">
+      <c r="Q25" s="10"/>
+      <c r="R25" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="43" t="s">
         <v>182</v>
       </c>
@@ -6751,11 +8186,12 @@
         <v>8</v>
       </c>
       <c r="P26" s="10"/>
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
       <c r="C27" s="35"/>
@@ -6774,9 +8210,10 @@
       <c r="N27" s="26"/>
       <c r="O27" s="10"/>
       <c r="P27" s="45"/>
-      <c r="Q27" s="54"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="Q27" s="45"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="43" t="s">
         <v>202</v>
       </c>
@@ -6822,11 +8259,12 @@
       <c r="O28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="43" t="s">
         <v>207</v>
       </c>
@@ -6872,11 +8310,12 @@
       <c r="O29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="43" t="s">
         <v>209</v>
       </c>
@@ -6922,11 +8361,12 @@
       <c r="O30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="43" t="s">
         <v>211</v>
       </c>
@@ -6972,11 +8412,12 @@
       <c r="O31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="43" t="s">
         <v>213</v>
       </c>
@@ -7022,11 +8463,12 @@
       <c r="O32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" s="43" t="s">
         <v>215</v>
       </c>
@@ -7072,11 +8514,12 @@
       <c r="O33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" s="43" t="s">
         <v>217</v>
       </c>
@@ -7122,11 +8565,12 @@
       <c r="O34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" s="43" t="s">
         <v>219</v>
       </c>
@@ -7172,11 +8616,12 @@
       <c r="O35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="43" t="s">
         <v>221</v>
       </c>
@@ -7222,11 +8667,12 @@
       <c r="O36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="43" t="s">
         <v>223</v>
       </c>
@@ -7272,11 +8718,12 @@
       <c r="O37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" s="43" t="s">
         <v>225</v>
       </c>
@@ -7322,11 +8769,12 @@
       <c r="O38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="43" t="s">
         <v>227</v>
       </c>
@@ -7372,11 +8820,12 @@
       <c r="O39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="35"/>
@@ -7393,8 +8842,9 @@
       <c r="N40" s="35"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="43" t="s">
         <v>231</v>
       </c>
@@ -7440,9 +8890,12 @@
       <c r="O41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="43" t="s">
         <v>234</v>
       </c>
@@ -7488,7 +8941,10 @@
       <c r="O42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="10"/>
+      <c r="P42" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q42" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7496,7 +8952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR96"/>
   <sheetViews>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="275">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -840,6 +840,12 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>TA_082</t>
+  </si>
+  <si>
+    <t>TA_082_D1</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5260,7 +5266,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5887,23 +5893,53 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="A11" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="61">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>840</v>
+      </c>
+      <c r="H11" s="3">
+        <v>100010</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1245</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>840</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100010</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1245</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>

--- a/CSM_Karthi/TestData/CSMparamTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMparamTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="283">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -846,6 +846,30 @@
   </si>
   <si>
     <t>TA_082_D1</t>
+  </si>
+  <si>
+    <t>App_ID</t>
+  </si>
+  <si>
+    <t>TA_086</t>
+  </si>
+  <si>
+    <t>TA_086_D1</t>
+  </si>
+  <si>
+    <t>DestinationBranch1</t>
+  </si>
+  <si>
+    <t>BranchCode2</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>TA_084</t>
+  </si>
+  <si>
+    <t>TA_084_D1</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5263,10 +5287,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5286,6 +5310,8 @@
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75">
@@ -5340,10 +5366,18 @@
       <c r="Q1" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="R1" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>280</v>
+      </c>
       <c r="V1" s="55"/>
       <c r="W1" s="55"/>
       <c r="X1" s="55"/>
@@ -5399,10 +5433,10 @@
       <c r="Q2" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
@@ -5458,10 +5492,10 @@
       <c r="Q3" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -5517,10 +5551,10 @@
       <c r="Q4" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -5578,10 +5612,10 @@
       <c r="Q5" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -5639,10 +5673,10 @@
       <c r="Q6" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -5700,10 +5734,10 @@
       <c r="Q7" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -5761,10 +5795,10 @@
       <c r="Q8" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -5822,10 +5856,10 @@
       <c r="Q9" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -5883,10 +5917,10 @@
       <c r="Q10" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -5915,13 +5949,13 @@
         <v>840</v>
       </c>
       <c r="H11" s="3">
-        <v>100010</v>
+        <v>100100</v>
       </c>
       <c r="I11" s="3">
-        <v>1245</v>
+        <v>105</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -5930,74 +5964,152 @@
         <v>840</v>
       </c>
       <c r="M11" s="3">
-        <v>100010</v>
+        <v>100100</v>
       </c>
       <c r="N11" s="3">
-        <v>1245</v>
+        <v>105</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="62"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="R11" s="5">
+        <v>105</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="A12" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="61">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>840</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>993384</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>840</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>993384</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="5">
+        <v>442</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="A13" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="61">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>840</v>
+      </c>
+      <c r="H13" s="3">
+        <v>210101</v>
+      </c>
+      <c r="I13" s="3">
+        <v>993403</v>
+      </c>
+      <c r="J13" s="3">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>840</v>
+      </c>
+      <c r="M13" s="3">
+        <v>210101</v>
+      </c>
+      <c r="N13" s="3">
+        <v>993403</v>
+      </c>
+      <c r="O13" s="3">
+        <v>9</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="5">
+        <v>463</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -6021,10 +6133,10 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -6048,10 +6160,10 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -6074,11 +6186,11 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -6101,11 +6213,11 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -6128,11 +6240,11 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -6155,11 +6267,11 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -6182,11 +6294,11 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -6209,11 +6321,11 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -6236,11 +6348,11 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -6263,11 +6375,11 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -6290,11 +6402,11 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -6317,11 +6429,11 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -6344,11 +6456,11 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -6371,11 +6483,11 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -6398,11 +6510,11 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -6425,11 +6537,11 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -6452,11 +6564,11 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
@@ -6479,11 +6591,11 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
@@ -6506,33 +6618,33 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="U32" s="5"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -6547,6 +6659,33 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
